--- a/medicine/Enfance/Anne-Laure_Bondoux/Anne-Laure_Bondoux.xlsx
+++ b/medicine/Enfance/Anne-Laure_Bondoux/Anne-Laure_Bondoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne-Laure Bondoux, née le 23 avril 1971 à Bois-Colombes, est une écrivaine française, notamment de livres pour la jeunesse.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de Bois-Colombes, elle vit aujourd'hui en région parisienne. 
 Elle a obtenu une licence de lettres modernes et s'est particulièrement intéressée à l'écriture chez les enfants en difficulté, avec qui elle a monté des ateliers d'écriture qui ont reçu le prix Fondation de France.
-Après avoir fait du théâtre et écrit des chansons, elle a rejoint en 1996 la rédaction de J'aime lire à Bayard Presse, puis a participé au lancement du nouveau magazine, Maximum[1], devenu DLire, aujourd'hui J'aime lire Max. Elle a cessé ses activités de journaliste en 2000 pour se consacrer exclusivement à l'écriture de romans pour jeunes et adultes.
+Après avoir fait du théâtre et écrit des chansons, elle a rejoint en 1996 la rédaction de J'aime lire à Bayard Presse, puis a participé au lancement du nouveau magazine, Maximum, devenu DLire, aujourd'hui J'aime lire Max. Elle a cessé ses activités de journaliste en 2000 pour se consacrer exclusivement à l'écriture de romans pour jeunes et adultes.
 Elle aime rencontrer et échanger avec ses jeunes lecteurs, sur les salons ou dans leurs classes. Des traductions de certains de ses livres existent en chinois, portugais, néerlandais, anglais, slovène, espagnol, roumain, italien, coréen, japonais, slovaque, allemand, turc et catalan.
 Ses romans ont obtenu de très nombreux prix en France et à l'étranger, notamment le prix Sorcières et le prix France Télévisions en 2004, le Mildred L. Batchelder Honor Book et le ALA Best Books For Young Adults (États-Unis) en 2007 et 2012 et le prix Andersen (it) (Italie) en 2009.
-Elle est lauréate en 2017 de la première édition du Prix Vendredi[2], qui récompense un ouvrage jeunesse pour public adolescent[2], pour L'aube sera grandiose, roman jeunesse sur la transmission[3].
-En 2023, elle reçoit la Pépite d'Or du Salon du livre et de la presse jeunesse pour Nous traverserons des orages[4].
+Elle est lauréate en 2017 de la première édition du Prix Vendredi, qui récompense un ouvrage jeunesse pour public adolescent, pour L'aube sera grandiose, roman jeunesse sur la transmission.
+En 2023, elle reçoit la Pépite d'Or du Salon du livre et de la presse jeunesse pour Nous traverserons des orages.
 </t>
         </is>
       </c>
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Qu'est-ce que tu vas faire de toi ?, illustrations Manu Boisteau - Nathan, 2000
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Qu'est-ce que tu vas faire de toi ?, illustrations Manu Boisteau - Nathan, 2000
 Noémie superstar ! - Syros, 2000 ; réédité en 2017
 Le Destin de Linus  Hoppe, Bayard Jeunesse, coll. Les Littéraires, 2001 ; Bayard poche, 2008
 Le Peuple des rats. 1 : La Grande menace, Bayard Jeunesse, coll.Les mondes imaginaires, 2001
@@ -568,12 +587,46 @@
 L'Autre Moitié de moi-même - Bayard, coll. Millézime, 2011
 Tant que nous sommes vivants - Gallimard jeunesse, 2014
 Et je danse, aussi, avec Jean-Claude Mourlevat - Fleuve éditions, 2015 ; Pocket, 2016
-L'aube sera grandiose[3] - Gallimard Jeunesse, 2017
+L'aube sera grandiose - Gallimard Jeunesse, 2017
 Valentine ou la belle saison - Fleuve édition, 2018
 Oh happy day, avec Jean-Claude Mourlevat - Fleuve éditions, 2020
-Nous traverserons des orages[5] - Gallimard Jeunesse, 2023
-Textes illustrés parus dans la presse
-La malédiction des cinq soleils, illustrations Bruno Pilorget, dans Maximum, no 1 - Bayard Jeunesse, 1998
+Nous traverserons des orages - Gallimard Jeunesse, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne-Laure_Bondoux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Laure_Bondoux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Textes illustrés parus dans la presse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La malédiction des cinq soleils, illustrations Bruno Pilorget, dans Maximum, no 1 - Bayard Jeunesse, 1998
 L'ïle des ténèbres, illustrations Emmanuel Moynot, dans Maximum, no 3 - Bayard Jeunesse, 1998
 Le Fantôme de l'architecte, illustrations Emmanuel Guibert, dans Maximum, no 4 - Bayard Jeunesse, 1999
 La Nuit des albatros, dans Maximum, no 16 - Bayard Jeunesse, 2000
@@ -586,31 +639,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Anne-Laure_Bondoux</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anne-Laure_Bondoux</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix littéraires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2004 : Prix France Télévisions pour Les larmes de l'assassin
 2004 : Prix Sésame Ados (Saint-Paul-Trois-Châteaux) pour Les larmes de l'assassin
@@ -620,38 +675,40 @@
 2009 : Prix Libbylit (Belgique) pour Le Temps des miracles
 2010 : Prix Tam-Tam Je Bouquine pour Le Temps des miracles
 2015 : Grand prix SGDL (Société des Gens De Lettres) du roman jeunesse pour Tant que nous sommes vivants
-2017 : Prix Vendredi pour L'aube sera grandiose[2]
-2019 : Prix RTS Littérature Ados 2019 pour L'aube sera grandiose[6]
-2023 : Pépite d'Or du Salon du livre et de la presse jeunesse[4]
-Prix Sorcières 2024[7] catégorie Carrément Passionnant maxi pour Nous traversons des orages</t>
+2017 : Prix Vendredi pour L'aube sera grandiose
+2019 : Prix RTS Littérature Ados 2019 pour L'aube sera grandiose
+2023 : Pépite d'Or du Salon du livre et de la presse jeunesse
+Prix Sorcières 2024 catégorie Carrément Passionnant maxi pour Nous traversons des orages</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Anne-Laure_Bondoux</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anne-Laure_Bondoux</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Documentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jean-Jacques Greif, « Anne-Laure Bondoux : oral de rattrapage, avec Jean-Jacques Greif, examinateur », Les Nouvelles [Charte des auteurs et illustrateurs jeunesse], no 28, 2005, p. 26-27
 Marie-Ange Pompignoli, « Visiteurs du soir : Anne-Laure Bondoux », compte-rendu de la rencontre organisée par la BnF / Centre National de la Littérature pour la Jeunesse, le 28 septembre 2006, animée par Véronique Soulé - Lire en ligne
